--- a/BalanceSheet/WHR_bal.xlsx
+++ b/BalanceSheet/WHR_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-332000000.0</v>
+        <v>2470000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>83000000.0</v>
+        <v>2187000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-65000000.0</v>
+        <v>2216000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>426000000.0</v>
+        <v>2129000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-203000000.0</v>
+        <v>2543000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2438000000.0</v>
@@ -1995,19 +1995,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>185000000.0</v>
+        <v>4673000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>503000000.0</v>
+        <v>4834000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>820000000.0</v>
+        <v>4179000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-738000000.0</v>
+        <v>3328000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-244000000.0</v>
+        <v>4065000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>4547000000.0</v>
